--- a/data/pca/factorExposure/factorExposure_2013-01-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-02.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006590834297841894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00179556594427697</v>
+      </c>
+      <c r="C2">
+        <v>-0.03180885691257353</v>
+      </c>
+      <c r="D2">
+        <v>0.005534891420247914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0005005047262808852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006424771939872542</v>
+      </c>
+      <c r="C4">
+        <v>-0.08457799958557791</v>
+      </c>
+      <c r="D4">
+        <v>0.07884268988233455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001884206220072892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01444574001928832</v>
+      </c>
+      <c r="C6">
+        <v>-0.1143581471768644</v>
+      </c>
+      <c r="D6">
+        <v>0.03292544582549672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001741551655839294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005136715860593635</v>
+      </c>
+      <c r="C7">
+        <v>-0.05793179375118166</v>
+      </c>
+      <c r="D7">
+        <v>0.03175755860929733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006186385126493656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005938289254432128</v>
+      </c>
+      <c r="C8">
+        <v>-0.0387654109371111</v>
+      </c>
+      <c r="D8">
+        <v>0.04114049191663099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003205961687402063</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004588281132727676</v>
+      </c>
+      <c r="C9">
+        <v>-0.07057207380386159</v>
+      </c>
+      <c r="D9">
+        <v>0.07283218785560598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002456342343026717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005427175061905015</v>
+      </c>
+      <c r="C10">
+        <v>-0.05804675906856448</v>
+      </c>
+      <c r="D10">
+        <v>-0.1982086999474061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002509728630698995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005832778744492268</v>
+      </c>
+      <c r="C11">
+        <v>-0.0794508925448084</v>
+      </c>
+      <c r="D11">
+        <v>0.06118409963481674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004687544029731548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004172483752347607</v>
+      </c>
+      <c r="C12">
+        <v>-0.06389076205647173</v>
+      </c>
+      <c r="D12">
+        <v>0.04757036403382791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002451315871971876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009050003436734552</v>
+      </c>
+      <c r="C13">
+        <v>-0.06813947452647269</v>
+      </c>
+      <c r="D13">
+        <v>0.05881504894059945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0007551729878815026</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001604060317378867</v>
+      </c>
+      <c r="C14">
+        <v>-0.04514693744053849</v>
+      </c>
+      <c r="D14">
+        <v>0.003636137937045573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.000650577575924778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006086176262344757</v>
+      </c>
+      <c r="C15">
+        <v>-0.04183816903995509</v>
+      </c>
+      <c r="D15">
+        <v>0.02963481596894274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008089672125763522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005169476857028597</v>
+      </c>
+      <c r="C16">
+        <v>-0.06507539275154473</v>
+      </c>
+      <c r="D16">
+        <v>0.0487915332712049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>9.743483532577581e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009092456569260795</v>
+      </c>
+      <c r="C20">
+        <v>-0.06564012823716235</v>
+      </c>
+      <c r="D20">
+        <v>0.04232711339266877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005959831849525597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01009334124309015</v>
+      </c>
+      <c r="C21">
+        <v>-0.02177245037186586</v>
+      </c>
+      <c r="D21">
+        <v>0.03707676069121297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.0164159409751902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.00656007970529878</v>
+      </c>
+      <c r="C22">
+        <v>-0.09435108675740027</v>
+      </c>
+      <c r="D22">
+        <v>0.1106028307762476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01671663842100016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006376198651799276</v>
+      </c>
+      <c r="C23">
+        <v>-0.09515931220233807</v>
+      </c>
+      <c r="D23">
+        <v>0.1106514030326336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001342994031186897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005616793414032616</v>
+      </c>
+      <c r="C24">
+        <v>-0.07621558907954089</v>
+      </c>
+      <c r="D24">
+        <v>0.06419790048158097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003920923329806912</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003169184691392061</v>
+      </c>
+      <c r="C25">
+        <v>-0.0784803220987096</v>
+      </c>
+      <c r="D25">
+        <v>0.06795087702152147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004598993556443979</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003694786114232837</v>
+      </c>
+      <c r="C26">
+        <v>-0.04085416333354519</v>
+      </c>
+      <c r="D26">
+        <v>0.0226290953836759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004880919376115444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006754225050907348</v>
+      </c>
+      <c r="C28">
+        <v>-0.107579218856915</v>
+      </c>
+      <c r="D28">
+        <v>-0.3172782625528385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001102435115558541</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003372948896942457</v>
+      </c>
+      <c r="C29">
+        <v>-0.05021347796447748</v>
+      </c>
+      <c r="D29">
+        <v>0.007122843024211871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003428147995427644</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009755679675200876</v>
+      </c>
+      <c r="C30">
+        <v>-0.1427749660257221</v>
+      </c>
+      <c r="D30">
+        <v>0.09540711476058443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001141566895323469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006356913333019588</v>
+      </c>
+      <c r="C31">
+        <v>-0.04475064192076134</v>
+      </c>
+      <c r="D31">
+        <v>0.03124479896844583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005051057169233132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004266826051035188</v>
+      </c>
+      <c r="C32">
+        <v>-0.04059105118385393</v>
+      </c>
+      <c r="D32">
+        <v>0.02009795016706476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002806536242706895</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008642442929051612</v>
+      </c>
+      <c r="C33">
+        <v>-0.08669828172578657</v>
+      </c>
+      <c r="D33">
+        <v>0.06611695612921728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004373855825459242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004078654410494228</v>
+      </c>
+      <c r="C34">
+        <v>-0.0579893524817555</v>
+      </c>
+      <c r="D34">
+        <v>0.05476881901464822</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001467511003671314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005081570450772565</v>
+      </c>
+      <c r="C35">
+        <v>-0.04050185689708263</v>
+      </c>
+      <c r="D35">
+        <v>0.01627989203163263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003730060603805571</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001062839563868249</v>
+      </c>
+      <c r="C36">
+        <v>-0.02456427531469527</v>
+      </c>
+      <c r="D36">
+        <v>0.02178698503125924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002397602118968988</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009548862109179856</v>
+      </c>
+      <c r="C38">
+        <v>-0.03487305384336137</v>
+      </c>
+      <c r="D38">
+        <v>0.01430498738722107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01163354708400209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003439594012938667</v>
+      </c>
+      <c r="C39">
+        <v>-0.115891579681587</v>
+      </c>
+      <c r="D39">
+        <v>0.07361881981437556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009551881479950472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00285969123920523</v>
+      </c>
+      <c r="C40">
+        <v>-0.09064788020064589</v>
+      </c>
+      <c r="D40">
+        <v>0.01024323950215479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>8.683271662233332e-06</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007304429046723916</v>
+      </c>
+      <c r="C41">
+        <v>-0.0380420668119435</v>
+      </c>
+      <c r="D41">
+        <v>0.03568821407653579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002845104703477297</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004167813886417186</v>
+      </c>
+      <c r="C43">
+        <v>-0.05384093329318029</v>
+      </c>
+      <c r="D43">
+        <v>0.02388532345899359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004339860137113767</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003575508989411754</v>
+      </c>
+      <c r="C44">
+        <v>-0.1097337173262906</v>
+      </c>
+      <c r="D44">
+        <v>0.06570802802750939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009411919615006996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002307127780485765</v>
+      </c>
+      <c r="C46">
+        <v>-0.03337763125758991</v>
+      </c>
+      <c r="D46">
+        <v>0.03397940374841042</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0003934424962741147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002802926758971072</v>
+      </c>
+      <c r="C47">
+        <v>-0.03758090696218418</v>
+      </c>
+      <c r="D47">
+        <v>0.0223544402564317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003761062119974766</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006721519755454149</v>
+      </c>
+      <c r="C48">
+        <v>-0.03063525128522091</v>
+      </c>
+      <c r="D48">
+        <v>0.0328660512385567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01187296685600763</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01575830384132163</v>
+      </c>
+      <c r="C49">
+        <v>-0.185244636184563</v>
+      </c>
+      <c r="D49">
+        <v>0.01265661432035467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001732794328985213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003723985670115937</v>
+      </c>
+      <c r="C50">
+        <v>-0.04335330191415977</v>
+      </c>
+      <c r="D50">
+        <v>0.03714299070905218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009883639138503584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004478241646218088</v>
+      </c>
+      <c r="C51">
+        <v>-0.02566238012500052</v>
+      </c>
+      <c r="D51">
+        <v>0.02103439774702193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007596723376595141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02126186985684232</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697831123800022</v>
+      </c>
+      <c r="D53">
+        <v>0.02626424718730047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001257483054937711</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008857794133521774</v>
+      </c>
+      <c r="C54">
+        <v>-0.05413084603040737</v>
+      </c>
+      <c r="D54">
+        <v>0.04409633021939855</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003534180185491348</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009733077021669315</v>
+      </c>
+      <c r="C55">
+        <v>-0.1082154837699542</v>
+      </c>
+      <c r="D55">
+        <v>0.04007420762079031</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002764503088067617</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02040774577618667</v>
+      </c>
+      <c r="C56">
+        <v>-0.1735984589545277</v>
+      </c>
+      <c r="D56">
+        <v>0.02424494491690615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007056072979847492</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01989145273693991</v>
+      </c>
+      <c r="C58">
+        <v>-0.1121825440710147</v>
+      </c>
+      <c r="D58">
+        <v>0.04606853824636883</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006646081076467694</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01015969903529084</v>
+      </c>
+      <c r="C59">
+        <v>-0.1649561875092906</v>
+      </c>
+      <c r="D59">
+        <v>-0.3216075998293448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003745993718385747</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02450996071429368</v>
+      </c>
+      <c r="C60">
+        <v>-0.222534850127532</v>
+      </c>
+      <c r="D60">
+        <v>0.03421132564960825</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.0136774909491419</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001549300651870808</v>
+      </c>
+      <c r="C61">
+        <v>-0.09519060667588329</v>
+      </c>
+      <c r="D61">
+        <v>0.05501570179511166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1632235322063361</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1450660300536166</v>
+      </c>
+      <c r="C62">
+        <v>-0.09180254870813734</v>
+      </c>
+      <c r="D62">
+        <v>0.04443530720601926</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0004956310802997423</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006408325447260805</v>
+      </c>
+      <c r="C63">
+        <v>-0.05495125932105639</v>
+      </c>
+      <c r="D63">
+        <v>0.02721656677513862</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0008231135975964812</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01551247403631944</v>
+      </c>
+      <c r="C64">
+        <v>-0.1047103716582008</v>
+      </c>
+      <c r="D64">
+        <v>0.05983503179005416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00270461605879723</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0183262973204797</v>
+      </c>
+      <c r="C65">
+        <v>-0.1249872985807022</v>
+      </c>
+      <c r="D65">
+        <v>0.0193887155677399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007710919857248324</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01337775157330139</v>
+      </c>
+      <c r="C66">
+        <v>-0.1598833856017569</v>
+      </c>
+      <c r="D66">
+        <v>0.112533419400697</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003621102177347961</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01577127289857672</v>
+      </c>
+      <c r="C67">
+        <v>-0.06579375885767544</v>
+      </c>
+      <c r="D67">
+        <v>0.02565085879974596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006043739422351197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0008649928978693793</v>
+      </c>
+      <c r="C68">
+        <v>-0.08734776018603602</v>
+      </c>
+      <c r="D68">
+        <v>-0.2590401538776383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002113849239526581</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006312348091028327</v>
+      </c>
+      <c r="C69">
+        <v>-0.05041577958256521</v>
+      </c>
+      <c r="D69">
+        <v>0.04004505914388351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002064290507481441</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001841367917423583</v>
+      </c>
+      <c r="C70">
+        <v>-0.002576558660685497</v>
+      </c>
+      <c r="D70">
+        <v>0.001318494844190048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>3.26375707653871e-07</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005969118402939356</v>
+      </c>
+      <c r="C71">
+        <v>-0.09506322862777654</v>
+      </c>
+      <c r="D71">
+        <v>-0.306196130829876</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003944968770078885</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01651998633192947</v>
+      </c>
+      <c r="C72">
+        <v>-0.1538348040898103</v>
+      </c>
+      <c r="D72">
+        <v>0.02130329710807246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01216086899654026</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03137780256282613</v>
+      </c>
+      <c r="C73">
+        <v>-0.2800586467055349</v>
+      </c>
+      <c r="D73">
+        <v>0.05313141223188326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004496574933549988</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002157715369751583</v>
+      </c>
+      <c r="C74">
+        <v>-0.1044407482925196</v>
+      </c>
+      <c r="D74">
+        <v>0.03521679220155943</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002529657127092812</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01122079966801842</v>
+      </c>
+      <c r="C75">
+        <v>-0.1249762914211004</v>
+      </c>
+      <c r="D75">
+        <v>0.02221241910683596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008866780908391289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02208258949144578</v>
+      </c>
+      <c r="C76">
+        <v>-0.148468598541011</v>
+      </c>
+      <c r="D76">
+        <v>0.05951710983679401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001511440651919642</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02368101459807171</v>
+      </c>
+      <c r="C77">
+        <v>-0.1217863997248552</v>
+      </c>
+      <c r="D77">
+        <v>0.09026964059249547</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003425623848543383</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01495639178534766</v>
+      </c>
+      <c r="C78">
+        <v>-0.09580801903300697</v>
+      </c>
+      <c r="D78">
+        <v>0.07185551636823925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02354782526883939</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03802277551342736</v>
+      </c>
+      <c r="C79">
+        <v>-0.1568133631018376</v>
+      </c>
+      <c r="D79">
+        <v>0.03293623615068329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006846320508420194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01046801785162827</v>
+      </c>
+      <c r="C80">
+        <v>-0.04031580095698376</v>
+      </c>
+      <c r="D80">
+        <v>0.02748483528651878</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0008604508751274808</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01555900646252102</v>
+      </c>
+      <c r="C81">
+        <v>-0.1267821626169214</v>
+      </c>
+      <c r="D81">
+        <v>0.0393108749656334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005799209135874297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02009936326719816</v>
+      </c>
+      <c r="C82">
+        <v>-0.1409557285174563</v>
+      </c>
+      <c r="D82">
+        <v>0.03658574255292337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009375219663229869</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01007477721334922</v>
+      </c>
+      <c r="C83">
+        <v>-0.05609846608571564</v>
+      </c>
+      <c r="D83">
+        <v>0.05028181034883729</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01310105228918816</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01173289138272743</v>
+      </c>
+      <c r="C84">
+        <v>-0.03771287502557232</v>
+      </c>
+      <c r="D84">
+        <v>-0.01042034993908858</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0140873676775785</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02846053406545912</v>
+      </c>
+      <c r="C85">
+        <v>-0.1237538143758589</v>
+      </c>
+      <c r="D85">
+        <v>0.0440816716380909</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001326469902682873</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006040115967041641</v>
+      </c>
+      <c r="C86">
+        <v>-0.05064881639414141</v>
+      </c>
+      <c r="D86">
+        <v>0.03051240886130863</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004113432628694721</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.0104121550356445</v>
+      </c>
+      <c r="C87">
+        <v>-0.1294303468115608</v>
+      </c>
+      <c r="D87">
+        <v>0.07494332324424434</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01153499449121989</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002835977940908684</v>
+      </c>
+      <c r="C88">
+        <v>-0.06490177068383904</v>
+      </c>
+      <c r="D88">
+        <v>0.01710303857702725</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01386554322176871</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0009885108723977447</v>
+      </c>
+      <c r="C89">
+        <v>-0.1475610178116988</v>
+      </c>
+      <c r="D89">
+        <v>-0.3402722776600687</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0006934803087507462</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007252327944445787</v>
+      </c>
+      <c r="C90">
+        <v>-0.1211055950977974</v>
+      </c>
+      <c r="D90">
+        <v>-0.3195122195831607</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0008335812523636569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01058091543562675</v>
+      </c>
+      <c r="C91">
+        <v>-0.0999923453800932</v>
+      </c>
+      <c r="D91">
+        <v>0.02169859635982239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.00740766004719177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001206640059427369</v>
+      </c>
+      <c r="C92">
+        <v>-0.1347076081124265</v>
+      </c>
+      <c r="D92">
+        <v>-0.3265795138300969</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-9.053665455138487e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005131065176131469</v>
+      </c>
+      <c r="C93">
+        <v>-0.1049190342608518</v>
+      </c>
+      <c r="D93">
+        <v>-0.3009894785937363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003562730751723988</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02275611515967765</v>
+      </c>
+      <c r="C94">
+        <v>-0.1462629121942317</v>
+      </c>
+      <c r="D94">
+        <v>0.05156772346003217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004819360274983997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01664980712555146</v>
+      </c>
+      <c r="C95">
+        <v>-0.1248304674332503</v>
+      </c>
+      <c r="D95">
+        <v>0.0565175338741465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.00158661771687949</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03660465486045286</v>
+      </c>
+      <c r="C97">
+        <v>-0.2124438116405621</v>
+      </c>
+      <c r="D97">
+        <v>-0.001334760588182158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002721333404996373</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03707392370133836</v>
+      </c>
+      <c r="C98">
+        <v>-0.2482880930131579</v>
+      </c>
+      <c r="D98">
+        <v>0.05036558735162432</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.984859862696376</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9819435858300941</v>
+      </c>
+      <c r="C99">
+        <v>0.1184353950717851</v>
+      </c>
+      <c r="D99">
+        <v>-0.0273169083606392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.000998672248262702</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003410810802241793</v>
+      </c>
+      <c r="C101">
+        <v>-0.05038951664567719</v>
+      </c>
+      <c r="D101">
+        <v>0.007272428856796596</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
